--- a/Test Case/Preethi/Test Case- Preethi Pathrose.xlsx
+++ b/Test Case/Preethi/Test Case- Preethi Pathrose.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="355">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -940,13 +940,209 @@
 </t>
   </si>
   <si>
-    <t>Enter Pain details like Pain loc,Intensity, Frequency,Character Duration , Radiation</t>
-  </si>
-  <si>
     <t>Enter Medication, check any in non-medication, Other Interventions ,Time  and pain assessment on different days</t>
   </si>
   <si>
     <t>Patient Id: NH00000072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pain Severity: 4
+Loc: Leg
+Character: pulling
+Frequency: Less
+Duration: 2 hours
+Radiation:Yes
+</t>
+  </si>
+  <si>
+    <t>MED_CD_TC_045</t>
+  </si>
+  <si>
+    <t>Verify "Edit" in Pain Assessment details in Templates is working correctly</t>
+  </si>
+  <si>
+    <t>Select Edit Button on Pain Assessment Details table View</t>
+  </si>
+  <si>
+    <t>Entered Details should be displayed as new line in editable format</t>
+  </si>
+  <si>
+    <t>Edit entered details and click Tick mark</t>
+  </si>
+  <si>
+    <t>"Data Saved" message should be displayed</t>
+  </si>
+  <si>
+    <t>Updated data should be loaded in its respective row</t>
+  </si>
+  <si>
+    <t>Enter Pain details like Pain loc,Intensity, Frequency,Character Duration , Radiation  and click Tick mark</t>
+  </si>
+  <si>
+    <t>Data should be displayed  in table row</t>
+  </si>
+  <si>
+    <t>MED_CD_TC_046</t>
+  </si>
+  <si>
+    <t>Precondition: 
+1) Patients in Arrived status 
+2) Enter Pain Assessment details like Location, Intensity, Frequency, Character ,Duration, Radiation</t>
+  </si>
+  <si>
+    <t>Verify "Delete" in Pain Assessment details in Templates is working correctly</t>
+  </si>
+  <si>
+    <t>Select Delete Button on Pain Assessment Details table View</t>
+  </si>
+  <si>
+    <t>Data is removed from the list</t>
+  </si>
+  <si>
+    <t>Verify "Print" in "Pain Assessment and ReAssessment Form" is working or not</t>
+  </si>
+  <si>
+    <t>Precondition: 
+1) Patients in Arrived status 
+2) Data entered in Pain Assessment Form</t>
+  </si>
+  <si>
+    <t>Pain Assessment details should be displayed</t>
+  </si>
+  <si>
+    <t>Select Save Button on Bottom of the page</t>
+  </si>
+  <si>
+    <t>A Pop up view of the page is displayed</t>
+  </si>
+  <si>
+    <t>Select Print Button on top right of the view</t>
+  </si>
+  <si>
+    <t>Preview of Pain details page with entered data should be displayed</t>
+  </si>
+  <si>
+    <t>MED_CD_TC_047</t>
+  </si>
+  <si>
+    <t>Select sub menu"Humpty Dumpty Fall Risk Assessment" under Template Menu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Humpty Dumpty Fall Risk Assessment Form should be displayed 
+1) Criteria to choose from drop down based on paramenter and score will appear
+2) Nursing Guidelines should be displayed
+3) Precautions for low risk Patients should be listed and check box should be provided against each one
+4) Precautions for high risk Patients should be listed and check box should be provided against each one
+5) Under "In the Event of all" heading list some details and check boxes to check
+</t>
+  </si>
+  <si>
+    <t>Enter details and click Save</t>
+  </si>
+  <si>
+    <t>"Data Saved" message is displayed</t>
+  </si>
+  <si>
+    <t>MED_CD_TC_048</t>
+  </si>
+  <si>
+    <t>Verify "New " in "Humpty Dumpty Fall Risk Assessment" is working correctly in Care Desk</t>
+  </si>
+  <si>
+    <t>Verify "Save" in "Humpty Dumpty Fall Risk Assessment" under "Template" Menu is working or not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precondition: Patients in Arrived status is required
+</t>
+  </si>
+  <si>
+    <t>Precondition: 
+1) Patients in arrived status is required
+2) Data entered in "Humpty Dumpty Fall Risk Assessment"</t>
+  </si>
+  <si>
+    <t>Assessment details should be displayed</t>
+  </si>
+  <si>
+    <t>Select "New" Button</t>
+  </si>
+  <si>
+    <t>A new "Humpty Dumpty Fall Risk Assessment " form for filling should be displayed</t>
+  </si>
+  <si>
+    <t>MED_CD_TC_049</t>
+  </si>
+  <si>
+    <t>MED_CD_TC_050</t>
+  </si>
+  <si>
+    <t>Verify "Print" option in "Humpty Dumpty Fall Risk Assessment" is working correctly in Care Desk Page</t>
+  </si>
+  <si>
+    <t>Precondition: 
+1) Patients in arrived status is required
+2) Data entered in "Humpty Dumpty Fall Risk Assessment Form"</t>
+  </si>
+  <si>
+    <t>Entered Assessment Details should be displayed</t>
+  </si>
+  <si>
+    <t>Select Print option on bottom of the page</t>
+  </si>
+  <si>
+    <t>Print Preview of form details should be displayed</t>
+  </si>
+  <si>
+    <t>MED_CD_TC_051</t>
+  </si>
+  <si>
+    <t>MED_CD_TC_052</t>
+  </si>
+  <si>
+    <t>Form details to print along with Print button on top should be displayed</t>
+  </si>
+  <si>
+    <t>Verify "Close" option in "Humpty Dumpty Fall Risk Assessment" is working correctly in Care Desk Page</t>
+  </si>
+  <si>
+    <t>Click Close option</t>
+  </si>
+  <si>
+    <t>Print view is closed</t>
+  </si>
+  <si>
+    <t>MED_CD_TC_053</t>
+  </si>
+  <si>
+    <t>Precondition: 
+1) Patients in arrived status is required</t>
+  </si>
+  <si>
+    <t>Select "ER-Triage Nurse Assessment" sub module under "Transaction"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify "Save" in "ER-Triage Nurse Assessment" for saving Chief Complaints and history of chief complaints is working correctly in Care Desk page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ER-Triage Nurse Assessment Form should be  displayed </t>
+  </si>
+  <si>
+    <t>Enter "Chief complaints" and "chief complaint history" details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click Save button after chief complaint history </t>
+  </si>
+  <si>
+    <t>MED_CD_TC_054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify "Save" in "ER-Triage Nurse Assessment" for saving Allergy details is working correctly in Care Desk page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select Allergy details from drop down </t>
+  </si>
+  <si>
+    <t>MED_CD_TC_055</t>
   </si>
 </sst>
 </file>
@@ -1441,7 +1637,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1449,11 +1645,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R737"/>
+  <dimension ref="A1:R736"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A243" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C297" sqref="C297"/>
+      <pane ySplit="1" topLeftCell="A377" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D386" sqref="D386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1463,7 +1659,7 @@
     <col min="3" max="3" width="16" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.28515625" style="6" customWidth="1"/>
     <col min="5" max="5" width="7.28515625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="36.7109375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="50.42578125" style="7" customWidth="1"/>
     <col min="7" max="7" width="39" style="7" customWidth="1"/>
     <col min="8" max="8" width="25.5703125" style="6" customWidth="1"/>
     <col min="9" max="9" width="15" style="6" customWidth="1"/>
@@ -1546,7 +1742,7 @@
       </c>
       <c r="O2" s="12">
         <f>COUNTA(A:A)-1</f>
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Q2" s="13" t="s">
         <v>12</v>
@@ -1556,7 +1752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="10" customFormat="1" ht="45">
+    <row r="3" spans="1:18" s="10" customFormat="1" ht="30">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="5"/>
@@ -1590,7 +1786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="10" customFormat="1" ht="45">
+    <row r="4" spans="1:18" s="10" customFormat="1" ht="30">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="5"/>
@@ -1653,7 +1849,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="9"/>
     </row>
-    <row r="7" spans="1:18" ht="45">
+    <row r="7" spans="1:18" ht="30">
       <c r="B7" s="16"/>
       <c r="D7" s="7"/>
       <c r="E7" s="6">
@@ -1697,7 +1893,7 @@
       <c r="J9" s="5"/>
       <c r="K9" s="9"/>
     </row>
-    <row r="10" spans="1:18" ht="60">
+    <row r="10" spans="1:18" ht="45">
       <c r="E10" s="6">
         <v>4</v>
       </c>
@@ -1730,7 +1926,7 @@
       <c r="J12" s="5"/>
       <c r="K12" s="9"/>
     </row>
-    <row r="13" spans="1:18" ht="45">
+    <row r="13" spans="1:18" ht="30">
       <c r="B13" s="16"/>
       <c r="D13" s="7"/>
       <c r="E13" s="6">
@@ -1760,7 +1956,7 @@
       <c r="J14" s="5"/>
       <c r="K14" s="9"/>
     </row>
-    <row r="15" spans="1:18" ht="195">
+    <row r="15" spans="1:18" ht="180">
       <c r="B15" s="16"/>
       <c r="D15" s="7"/>
       <c r="E15" s="6">
@@ -1775,7 +1971,7 @@
       <c r="J15" s="5"/>
       <c r="K15" s="9"/>
     </row>
-    <row r="16" spans="1:18" ht="60">
+    <row r="16" spans="1:18" ht="45">
       <c r="B16" s="16"/>
       <c r="D16" s="7"/>
       <c r="E16" s="6">
@@ -1825,7 +2021,7 @@
       <c r="J19" s="5"/>
       <c r="K19" s="9"/>
     </row>
-    <row r="20" spans="1:11" ht="45">
+    <row r="20" spans="1:11" ht="30">
       <c r="B20" s="16"/>
       <c r="D20" s="7"/>
       <c r="E20" s="6">
@@ -1853,7 +2049,7 @@
       <c r="J21" s="5"/>
       <c r="K21" s="9"/>
     </row>
-    <row r="22" spans="1:11" ht="195">
+    <row r="22" spans="1:11" ht="180">
       <c r="E22" s="6">
         <v>3</v>
       </c>
@@ -1866,7 +2062,7 @@
       <c r="J22" s="5"/>
       <c r="K22" s="9"/>
     </row>
-    <row r="23" spans="1:11" ht="60">
+    <row r="23" spans="1:11" ht="45">
       <c r="E23" s="6">
         <v>4</v>
       </c>
@@ -1912,7 +2108,7 @@
       <c r="J26" s="5"/>
       <c r="K26" s="9"/>
     </row>
-    <row r="27" spans="1:11" ht="45">
+    <row r="27" spans="1:11" ht="30">
       <c r="D27" s="7"/>
       <c r="E27" s="6">
         <v>1</v>
@@ -1942,7 +2138,7 @@
       <c r="J28" s="5"/>
       <c r="K28" s="9"/>
     </row>
-    <row r="29" spans="1:11" ht="195">
+    <row r="29" spans="1:11" ht="180">
       <c r="E29" s="6">
         <v>3</v>
       </c>
@@ -2353,7 +2549,7 @@
       <c r="J59" s="5"/>
       <c r="K59" s="9"/>
     </row>
-    <row r="60" spans="1:11" ht="30">
+    <row r="60" spans="1:11">
       <c r="E60" s="6">
         <v>5</v>
       </c>
@@ -2580,7 +2776,7 @@
       <c r="J76" s="5"/>
       <c r="K76" s="9"/>
     </row>
-    <row r="77" spans="1:11" ht="30">
+    <row r="77" spans="1:11">
       <c r="E77" s="6">
         <v>5</v>
       </c>
@@ -2617,7 +2813,7 @@
       <c r="J80" s="5"/>
       <c r="K80" s="9"/>
     </row>
-    <row r="81" spans="1:11" ht="30">
+    <row r="81" spans="1:11">
       <c r="A81" s="7" t="s">
         <v>30</v>
       </c>
@@ -2672,7 +2868,7 @@
       <c r="J84" s="5"/>
       <c r="K84" s="9"/>
     </row>
-    <row r="85" spans="1:11" ht="30">
+    <row r="85" spans="1:11">
       <c r="E85" s="6">
         <v>5</v>
       </c>
@@ -2915,7 +3111,7 @@
       <c r="J105" s="5"/>
       <c r="K105" s="9"/>
     </row>
-    <row r="106" spans="1:11" ht="45">
+    <row r="106" spans="1:11" ht="30">
       <c r="E106" s="6">
         <v>3</v>
       </c>
@@ -2974,7 +3170,7 @@
       <c r="J110" s="5"/>
       <c r="K110" s="9"/>
     </row>
-    <row r="111" spans="1:11" ht="45">
+    <row r="111" spans="1:11" ht="30">
       <c r="E111" s="6">
         <v>3</v>
       </c>
@@ -3033,7 +3229,7 @@
       <c r="J115" s="5"/>
       <c r="K115" s="9"/>
     </row>
-    <row r="116" spans="1:11" ht="210">
+    <row r="116" spans="1:11" ht="195">
       <c r="E116" s="6">
         <v>3</v>
       </c>
@@ -3119,7 +3315,7 @@
       <c r="J122" s="5"/>
       <c r="K122" s="9"/>
     </row>
-    <row r="123" spans="1:11" ht="45">
+    <row r="123" spans="1:11" ht="30">
       <c r="E123" s="6">
         <v>6</v>
       </c>
@@ -3195,7 +3391,7 @@
       <c r="J128" s="5"/>
       <c r="K128" s="9"/>
     </row>
-    <row r="129" spans="1:11" ht="45">
+    <row r="129" spans="1:11" ht="30">
       <c r="E129" s="6">
         <v>4</v>
       </c>
@@ -3258,7 +3454,7 @@
       <c r="J133" s="5"/>
       <c r="K133" s="9"/>
     </row>
-    <row r="134" spans="1:11" ht="30">
+    <row r="134" spans="1:11">
       <c r="E134" s="6">
         <v>8</v>
       </c>
@@ -3347,7 +3543,7 @@
       <c r="J141" s="5"/>
       <c r="K141" s="9"/>
     </row>
-    <row r="142" spans="1:11" ht="45">
+    <row r="142" spans="1:11" ht="30">
       <c r="E142" s="6">
         <v>4</v>
       </c>
@@ -3422,7 +3618,7 @@
       <c r="J147" s="5"/>
       <c r="K147" s="9"/>
     </row>
-    <row r="148" spans="1:11" ht="45">
+    <row r="148" spans="1:11" ht="30">
       <c r="E148" s="6">
         <v>4</v>
       </c>
@@ -3497,7 +3693,7 @@
       <c r="J153" s="5"/>
       <c r="K153" s="9"/>
     </row>
-    <row r="154" spans="1:11" ht="45">
+    <row r="154" spans="1:11" ht="30">
       <c r="E154" s="6">
         <v>4</v>
       </c>
@@ -3720,7 +3916,7 @@
       <c r="J172" s="5"/>
       <c r="K172" s="9"/>
     </row>
-    <row r="173" spans="1:11" ht="30">
+    <row r="173" spans="1:11">
       <c r="E173" s="6">
         <v>9</v>
       </c>
@@ -3831,7 +4027,7 @@
       <c r="J181" s="5"/>
       <c r="K181" s="9"/>
     </row>
-    <row r="182" spans="1:11" ht="30">
+    <row r="182" spans="1:11">
       <c r="E182" s="6">
         <v>6</v>
       </c>
@@ -4322,7 +4518,7 @@
       <c r="J217" s="5"/>
       <c r="K217" s="9"/>
     </row>
-    <row r="218" spans="1:11" ht="30">
+    <row r="218" spans="1:11">
       <c r="E218" s="6">
         <v>4</v>
       </c>
@@ -4352,7 +4548,7 @@
       <c r="J220" s="5"/>
       <c r="K220" s="9"/>
     </row>
-    <row r="221" spans="1:11" ht="45">
+    <row r="221" spans="1:11" ht="30">
       <c r="E221" s="6">
         <v>1</v>
       </c>
@@ -4391,7 +4587,7 @@
       <c r="J223" s="5"/>
       <c r="K223" s="9"/>
     </row>
-    <row r="224" spans="1:11" ht="45">
+    <row r="224" spans="1:11" ht="30">
       <c r="E224" s="6">
         <v>4</v>
       </c>
@@ -4433,7 +4629,7 @@
     </row>
     <row r="228" spans="1:11" ht="45">
       <c r="A228" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B228" s="7" t="s">
         <v>62</v>
@@ -4498,7 +4694,7 @@
     </row>
     <row r="233" spans="1:11" ht="45">
       <c r="A233" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B233" s="7" t="s">
         <v>62</v>
@@ -4576,7 +4772,7 @@
     </row>
     <row r="239" spans="1:11" ht="45">
       <c r="A239" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B239" s="7" t="s">
         <v>62</v>
@@ -4641,7 +4837,7 @@
     </row>
     <row r="244" spans="1:11" ht="45">
       <c r="A244" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B244" s="7" t="s">
         <v>62</v>
@@ -4719,7 +4915,7 @@
     </row>
     <row r="250" spans="1:11" ht="45">
       <c r="A250" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B250" s="7" t="s">
         <v>62</v>
@@ -4784,7 +4980,7 @@
     </row>
     <row r="255" spans="1:11" ht="45">
       <c r="A255" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B255" s="7" t="s">
         <v>62</v>
@@ -4860,9 +5056,9 @@
       <c r="J260" s="5"/>
       <c r="K260" s="9"/>
     </row>
-    <row r="261" spans="1:11" ht="45">
+    <row r="261" spans="1:11" ht="30">
       <c r="A261" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B261" s="7" t="s">
         <v>62</v>
@@ -4927,7 +5123,7 @@
     </row>
     <row r="266" spans="1:11" ht="45">
       <c r="A266" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B266" s="7" t="s">
         <v>62</v>
@@ -5005,7 +5201,7 @@
     </row>
     <row r="272" spans="1:11" ht="30">
       <c r="A272" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B272" s="7" t="s">
         <v>62</v>
@@ -5019,7 +5215,7 @@
       <c r="J272" s="5"/>
       <c r="K272" s="9"/>
     </row>
-    <row r="273" spans="1:11" ht="45">
+    <row r="273" spans="1:11" ht="30">
       <c r="E273" s="6">
         <v>1</v>
       </c>
@@ -5058,7 +5254,7 @@
       <c r="J275" s="5"/>
       <c r="K275" s="9"/>
     </row>
-    <row r="276" spans="1:11" ht="30">
+    <row r="276" spans="1:11">
       <c r="E276" s="6">
         <v>4</v>
       </c>
@@ -5087,7 +5283,7 @@
     </row>
     <row r="279" spans="1:11" ht="30">
       <c r="A279" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B279" s="7" t="s">
         <v>62</v>
@@ -5101,7 +5297,7 @@
       <c r="J279" s="5"/>
       <c r="K279" s="9"/>
     </row>
-    <row r="280" spans="1:11" ht="45">
+    <row r="280" spans="1:11" ht="30">
       <c r="E280" s="6">
         <v>1</v>
       </c>
@@ -5146,7 +5342,7 @@
     </row>
     <row r="284" spans="1:11" ht="45">
       <c r="A284" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B284" s="7" t="s">
         <v>62</v>
@@ -5160,7 +5356,7 @@
       <c r="J284" s="5"/>
       <c r="K284" s="9"/>
     </row>
-    <row r="285" spans="1:11" ht="45">
+    <row r="285" spans="1:11" ht="30">
       <c r="E285" s="6">
         <v>1</v>
       </c>
@@ -5186,7 +5382,7 @@
       <c r="J286" s="5"/>
       <c r="K286" s="9"/>
     </row>
-    <row r="287" spans="1:11" ht="30">
+    <row r="287" spans="1:11">
       <c r="E287" s="6">
         <v>3</v>
       </c>
@@ -5215,7 +5411,7 @@
     </row>
     <row r="290" spans="1:11" ht="45">
       <c r="A290" s="7" t="s">
-        <v>60</v>
+        <v>287</v>
       </c>
       <c r="B290" s="7" t="s">
         <v>62</v>
@@ -5229,7 +5425,7 @@
       <c r="J290" s="5"/>
       <c r="K290" s="9"/>
     </row>
-    <row r="291" spans="1:11" ht="45">
+    <row r="291" spans="1:11" ht="30">
       <c r="E291" s="6">
         <v>1</v>
       </c>
@@ -5255,7 +5451,7 @@
       <c r="J292" s="5"/>
       <c r="K292" s="9"/>
     </row>
-    <row r="293" spans="1:11" ht="30">
+    <row r="293" spans="1:11">
       <c r="E293" s="6">
         <v>3</v>
       </c>
@@ -5294,7 +5490,7 @@
     </row>
     <row r="297" spans="1:11" ht="45">
       <c r="A297" s="7" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="B297" s="7" t="s">
         <v>62</v>
@@ -5308,7 +5504,7 @@
       <c r="J297" s="5"/>
       <c r="K297" s="9"/>
     </row>
-    <row r="298" spans="1:11" ht="45">
+    <row r="298" spans="1:11" ht="30">
       <c r="E298" s="6">
         <v>1</v>
       </c>
@@ -5345,7 +5541,7 @@
         <v>161</v>
       </c>
       <c r="H300" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J300" s="5"/>
       <c r="K300" s="9"/>
@@ -5363,7 +5559,7 @@
       <c r="J301" s="5"/>
       <c r="K301" s="9"/>
     </row>
-    <row r="302" spans="1:11" ht="75">
+    <row r="302" spans="1:11" ht="105">
       <c r="E302" s="6">
         <v>5</v>
       </c>
@@ -5372,6 +5568,9 @@
       </c>
       <c r="G302" s="7" t="s">
         <v>293</v>
+      </c>
+      <c r="H302" s="7" t="s">
+        <v>296</v>
       </c>
       <c r="J302" s="5"/>
       <c r="K302" s="9"/>
@@ -5381,7 +5580,10 @@
         <v>6</v>
       </c>
       <c r="F303" s="7" t="s">
-        <v>294</v>
+        <v>304</v>
+      </c>
+      <c r="G303" s="7" t="s">
+        <v>305</v>
       </c>
       <c r="J303" s="5"/>
       <c r="K303" s="9"/>
@@ -5396,17 +5598,17 @@
       <c r="J304" s="5"/>
       <c r="K304" s="9"/>
     </row>
-    <row r="305" spans="5:11" ht="45">
+    <row r="305" spans="1:11" ht="45">
       <c r="E305" s="6">
         <v>7</v>
       </c>
       <c r="F305" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J305" s="5"/>
       <c r="K305" s="9"/>
     </row>
-    <row r="306" spans="5:11">
+    <row r="306" spans="1:11">
       <c r="E306" s="6">
         <v>8</v>
       </c>
@@ -5416,379 +5618,1032 @@
       <c r="J306" s="5"/>
       <c r="K306" s="9"/>
     </row>
-    <row r="307" spans="5:11">
+    <row r="307" spans="1:11">
       <c r="J307" s="5"/>
       <c r="K307" s="9"/>
     </row>
-    <row r="308" spans="5:11">
+    <row r="308" spans="1:11" ht="60">
+      <c r="A308" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="B308" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D308" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F308" s="7" t="s">
+        <v>307</v>
+      </c>
       <c r="J308" s="5"/>
       <c r="K308" s="9"/>
     </row>
-    <row r="309" spans="5:11">
+    <row r="309" spans="1:11" ht="30">
+      <c r="E309" s="6">
+        <v>1</v>
+      </c>
+      <c r="F309" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="G309" s="7" t="s">
+        <v>68</v>
+      </c>
       <c r="J309" s="5"/>
       <c r="K309" s="9"/>
     </row>
-    <row r="310" spans="5:11">
+    <row r="310" spans="1:11" ht="60">
+      <c r="E310" s="6">
+        <v>2</v>
+      </c>
+      <c r="F310" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G310" s="7" t="s">
+        <v>279</v>
+      </c>
       <c r="J310" s="5"/>
       <c r="K310" s="9"/>
     </row>
-    <row r="311" spans="5:11">
+    <row r="311" spans="1:11" ht="75">
+      <c r="E311" s="6">
+        <v>3</v>
+      </c>
+      <c r="F311" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G311" s="7" t="s">
+        <v>161</v>
+      </c>
       <c r="J311" s="5"/>
       <c r="K311" s="9"/>
     </row>
-    <row r="312" spans="5:11">
+    <row r="312" spans="1:11" ht="135">
+      <c r="E312" s="6">
+        <v>4</v>
+      </c>
+      <c r="F312" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G312" s="7" t="s">
+        <v>291</v>
+      </c>
       <c r="J312" s="5"/>
       <c r="K312" s="9"/>
     </row>
-    <row r="313" spans="5:11">
+    <row r="313" spans="1:11" ht="75">
+      <c r="E313" s="6">
+        <v>5</v>
+      </c>
+      <c r="F313" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G313" s="7" t="s">
+        <v>293</v>
+      </c>
       <c r="J313" s="5"/>
       <c r="K313" s="9"/>
     </row>
-    <row r="314" spans="5:11">
+    <row r="314" spans="1:11" ht="30">
+      <c r="E314" s="6">
+        <v>6</v>
+      </c>
+      <c r="F314" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G314" s="7" t="s">
+        <v>300</v>
+      </c>
       <c r="J314" s="5"/>
       <c r="K314" s="9"/>
     </row>
-    <row r="315" spans="5:11">
+    <row r="315" spans="1:11" ht="30">
+      <c r="E315" s="6">
+        <v>7</v>
+      </c>
+      <c r="F315" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="G315" s="7" t="s">
+        <v>303</v>
+      </c>
       <c r="J315" s="5"/>
       <c r="K315" s="9"/>
     </row>
-    <row r="316" spans="5:11">
+    <row r="316" spans="1:11" ht="30">
+      <c r="E316" s="6">
+        <v>8</v>
+      </c>
+      <c r="F316" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G316" s="7" t="s">
+        <v>302</v>
+      </c>
       <c r="J316" s="5"/>
       <c r="K316" s="9"/>
     </row>
-    <row r="317" spans="5:11">
+    <row r="317" spans="1:11">
       <c r="J317" s="5"/>
       <c r="K317" s="9"/>
     </row>
-    <row r="318" spans="5:11">
+    <row r="318" spans="1:11" ht="60">
+      <c r="A318" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="B318" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D318" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F318" s="7" t="s">
+        <v>307</v>
+      </c>
       <c r="J318" s="5"/>
       <c r="K318" s="9"/>
     </row>
-    <row r="319" spans="5:11">
+    <row r="319" spans="1:11" ht="30">
+      <c r="E319" s="6">
+        <v>1</v>
+      </c>
+      <c r="F319" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="G319" s="7" t="s">
+        <v>68</v>
+      </c>
       <c r="J319" s="5"/>
       <c r="K319" s="9"/>
     </row>
-    <row r="320" spans="5:11">
+    <row r="320" spans="1:11" ht="60">
+      <c r="E320" s="6">
+        <v>2</v>
+      </c>
+      <c r="F320" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G320" s="7" t="s">
+        <v>279</v>
+      </c>
       <c r="J320" s="5"/>
       <c r="K320" s="9"/>
     </row>
-    <row r="321" spans="10:11">
+    <row r="321" spans="1:11" ht="75">
+      <c r="E321" s="6">
+        <v>3</v>
+      </c>
+      <c r="F321" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G321" s="7" t="s">
+        <v>161</v>
+      </c>
       <c r="J321" s="5"/>
       <c r="K321" s="9"/>
     </row>
-    <row r="322" spans="10:11">
+    <row r="322" spans="1:11" ht="135">
+      <c r="E322" s="6">
+        <v>4</v>
+      </c>
+      <c r="F322" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G322" s="7" t="s">
+        <v>291</v>
+      </c>
       <c r="J322" s="5"/>
       <c r="K322" s="9"/>
     </row>
-    <row r="323" spans="10:11">
+    <row r="323" spans="1:11" ht="57" customHeight="1">
+      <c r="E323" s="6">
+        <v>5</v>
+      </c>
+      <c r="F323" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G323" s="7" t="s">
+        <v>293</v>
+      </c>
       <c r="J323" s="5"/>
       <c r="K323" s="9"/>
     </row>
-    <row r="324" spans="10:11">
+    <row r="324" spans="1:11" ht="30">
+      <c r="E324" s="6">
+        <v>6</v>
+      </c>
+      <c r="F324" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="G324" s="7" t="s">
+        <v>310</v>
+      </c>
       <c r="J324" s="5"/>
       <c r="K324" s="9"/>
     </row>
-    <row r="325" spans="10:11">
+    <row r="325" spans="1:11">
       <c r="J325" s="5"/>
       <c r="K325" s="9"/>
     </row>
-    <row r="326" spans="10:11">
+    <row r="326" spans="1:11" ht="45">
+      <c r="A326" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="B326" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D326" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F326" s="7" t="s">
+        <v>312</v>
+      </c>
       <c r="J326" s="5"/>
       <c r="K326" s="9"/>
     </row>
-    <row r="327" spans="10:11">
+    <row r="327" spans="1:11" ht="30">
+      <c r="E327" s="6">
+        <v>1</v>
+      </c>
+      <c r="F327" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="G327" s="7" t="s">
+        <v>68</v>
+      </c>
       <c r="J327" s="5"/>
       <c r="K327" s="9"/>
     </row>
-    <row r="328" spans="10:11">
+    <row r="328" spans="1:11" ht="60">
+      <c r="E328" s="6">
+        <v>2</v>
+      </c>
+      <c r="F328" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G328" s="7" t="s">
+        <v>279</v>
+      </c>
       <c r="J328" s="5"/>
       <c r="K328" s="9"/>
     </row>
-    <row r="329" spans="10:11">
+    <row r="329" spans="1:11" ht="75">
+      <c r="E329" s="6">
+        <v>3</v>
+      </c>
+      <c r="F329" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G329" s="7" t="s">
+        <v>161</v>
+      </c>
       <c r="J329" s="5"/>
       <c r="K329" s="9"/>
     </row>
-    <row r="330" spans="10:11">
+    <row r="330" spans="1:11" ht="135">
+      <c r="E330" s="6">
+        <v>4</v>
+      </c>
+      <c r="F330" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G330" s="7" t="s">
+        <v>291</v>
+      </c>
       <c r="J330" s="5"/>
       <c r="K330" s="9"/>
     </row>
-    <row r="331" spans="10:11">
+    <row r="331" spans="1:11" ht="30">
+      <c r="E331" s="6">
+        <v>5</v>
+      </c>
+      <c r="F331" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G331" s="7" t="s">
+        <v>313</v>
+      </c>
       <c r="J331" s="5"/>
       <c r="K331" s="9"/>
     </row>
-    <row r="332" spans="10:11">
+    <row r="332" spans="1:11">
+      <c r="E332" s="6">
+        <v>6</v>
+      </c>
+      <c r="F332" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="G332" s="7" t="s">
+        <v>315</v>
+      </c>
       <c r="J332" s="5"/>
       <c r="K332" s="9"/>
     </row>
-    <row r="333" spans="10:11">
+    <row r="333" spans="1:11" ht="30">
+      <c r="E333" s="6">
+        <v>7</v>
+      </c>
+      <c r="F333" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="G333" s="7" t="s">
+        <v>317</v>
+      </c>
       <c r="J333" s="5"/>
       <c r="K333" s="9"/>
     </row>
-    <row r="334" spans="10:11">
+    <row r="334" spans="1:11">
       <c r="J334" s="5"/>
       <c r="K334" s="9"/>
     </row>
-    <row r="335" spans="10:11">
+    <row r="335" spans="1:11" ht="45">
+      <c r="A335" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="B335" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D335" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F335" s="7" t="s">
+        <v>326</v>
+      </c>
       <c r="J335" s="5"/>
       <c r="K335" s="9"/>
     </row>
-    <row r="336" spans="10:11">
+    <row r="336" spans="1:11" ht="30">
+      <c r="E336" s="6">
+        <v>1</v>
+      </c>
+      <c r="F336" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="G336" s="7" t="s">
+        <v>68</v>
+      </c>
       <c r="J336" s="5"/>
       <c r="K336" s="9"/>
     </row>
-    <row r="337" spans="10:11">
+    <row r="337" spans="1:11" ht="60">
+      <c r="E337" s="6">
+        <v>2</v>
+      </c>
+      <c r="F337" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G337" s="7" t="s">
+        <v>279</v>
+      </c>
       <c r="J337" s="5"/>
       <c r="K337" s="9"/>
     </row>
-    <row r="338" spans="10:11">
+    <row r="338" spans="1:11" ht="75">
+      <c r="E338" s="6">
+        <v>3</v>
+      </c>
+      <c r="F338" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G338" s="7" t="s">
+        <v>161</v>
+      </c>
       <c r="J338" s="5"/>
       <c r="K338" s="9"/>
     </row>
-    <row r="339" spans="10:11">
+    <row r="339" spans="1:11" ht="135">
+      <c r="E339" s="6">
+        <v>4</v>
+      </c>
+      <c r="F339" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G339" s="7" t="s">
+        <v>291</v>
+      </c>
       <c r="J339" s="5"/>
       <c r="K339" s="9"/>
     </row>
-    <row r="340" spans="10:11">
+    <row r="340" spans="1:11" ht="216" customHeight="1">
+      <c r="E340" s="6">
+        <v>5</v>
+      </c>
+      <c r="F340" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="G340" s="7" t="s">
+        <v>320</v>
+      </c>
       <c r="J340" s="5"/>
       <c r="K340" s="9"/>
     </row>
-    <row r="341" spans="10:11">
+    <row r="341" spans="1:11">
+      <c r="E341" s="6">
+        <v>6</v>
+      </c>
+      <c r="F341" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="G341" s="7" t="s">
+        <v>322</v>
+      </c>
       <c r="J341" s="5"/>
       <c r="K341" s="9"/>
     </row>
-    <row r="342" spans="10:11">
+    <row r="342" spans="1:11">
       <c r="J342" s="5"/>
       <c r="K342" s="9"/>
     </row>
-    <row r="343" spans="10:11">
+    <row r="343" spans="1:11" ht="60">
+      <c r="A343" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="B343" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D343" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F343" s="7" t="s">
+        <v>327</v>
+      </c>
       <c r="J343" s="5"/>
       <c r="K343" s="9"/>
     </row>
-    <row r="344" spans="10:11">
+    <row r="344" spans="1:11" ht="30">
+      <c r="E344" s="6">
+        <v>1</v>
+      </c>
+      <c r="F344" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="G344" s="7" t="s">
+        <v>68</v>
+      </c>
       <c r="J344" s="5"/>
       <c r="K344" s="9"/>
     </row>
-    <row r="345" spans="10:11">
+    <row r="345" spans="1:11" ht="60">
+      <c r="E345" s="6">
+        <v>2</v>
+      </c>
+      <c r="F345" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G345" s="7" t="s">
+        <v>279</v>
+      </c>
       <c r="J345" s="5"/>
       <c r="K345" s="9"/>
     </row>
-    <row r="346" spans="10:11">
+    <row r="346" spans="1:11" ht="69" customHeight="1">
+      <c r="E346" s="6">
+        <v>3</v>
+      </c>
+      <c r="F346" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G346" s="7" t="s">
+        <v>161</v>
+      </c>
       <c r="J346" s="5"/>
       <c r="K346" s="9"/>
     </row>
-    <row r="347" spans="10:11">
+    <row r="347" spans="1:11" ht="123.75" customHeight="1">
+      <c r="E347" s="6">
+        <v>4</v>
+      </c>
+      <c r="F347" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G347" s="7" t="s">
+        <v>291</v>
+      </c>
       <c r="J347" s="5"/>
       <c r="K347" s="9"/>
     </row>
-    <row r="348" spans="10:11">
+    <row r="348" spans="1:11" ht="34.5" customHeight="1">
+      <c r="A348" s="6"/>
+      <c r="B348" s="6"/>
+      <c r="E348" s="6">
+        <v>5</v>
+      </c>
+      <c r="F348" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="G348" s="6" t="s">
+        <v>328</v>
+      </c>
       <c r="J348" s="5"/>
-      <c r="K348" s="9"/>
-    </row>
-    <row r="349" spans="10:11">
+      <c r="K348" s="8"/>
+    </row>
+    <row r="349" spans="1:11" ht="45">
+      <c r="E349" s="6">
+        <v>6</v>
+      </c>
+      <c r="F349" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G349" s="7" t="s">
+        <v>330</v>
+      </c>
       <c r="J349" s="5"/>
       <c r="K349" s="9"/>
     </row>
-    <row r="350" spans="10:11">
+    <row r="350" spans="1:11" ht="60">
+      <c r="A350" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="B350" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D350" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F350" s="7" t="s">
+        <v>334</v>
+      </c>
       <c r="J350" s="5"/>
       <c r="K350" s="9"/>
     </row>
-    <row r="351" spans="10:11">
+    <row r="351" spans="1:11" ht="30">
+      <c r="E351" s="6">
+        <v>1</v>
+      </c>
+      <c r="F351" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="G351" s="7" t="s">
+        <v>68</v>
+      </c>
       <c r="J351" s="5"/>
       <c r="K351" s="9"/>
     </row>
-    <row r="352" spans="10:11">
+    <row r="352" spans="1:11" ht="60">
+      <c r="E352" s="6">
+        <v>2</v>
+      </c>
+      <c r="F352" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G352" s="7" t="s">
+        <v>279</v>
+      </c>
       <c r="J352" s="5"/>
       <c r="K352" s="9"/>
     </row>
-    <row r="353" spans="10:11">
+    <row r="353" spans="1:11" ht="75">
+      <c r="E353" s="6">
+        <v>3</v>
+      </c>
+      <c r="F353" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G353" s="7" t="s">
+        <v>161</v>
+      </c>
       <c r="J353" s="5"/>
       <c r="K353" s="9"/>
     </row>
-    <row r="354" spans="10:11">
+    <row r="354" spans="1:11" ht="135">
+      <c r="E354" s="6">
+        <v>4</v>
+      </c>
+      <c r="F354" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G354" s="7" t="s">
+        <v>291</v>
+      </c>
       <c r="J354" s="5"/>
       <c r="K354" s="9"/>
     </row>
-    <row r="355" spans="10:11">
+    <row r="355" spans="1:11" ht="30">
+      <c r="E355" s="6">
+        <v>5</v>
+      </c>
+      <c r="F355" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="G355" s="7" t="s">
+        <v>335</v>
+      </c>
       <c r="J355" s="5"/>
       <c r="K355" s="9"/>
     </row>
-    <row r="356" spans="10:11">
+    <row r="356" spans="1:11" ht="30">
+      <c r="E356" s="6">
+        <v>6</v>
+      </c>
+      <c r="F356" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="G356" s="7" t="s">
+        <v>340</v>
+      </c>
       <c r="J356" s="5"/>
       <c r="K356" s="9"/>
     </row>
-    <row r="357" spans="10:11">
+    <row r="357" spans="1:11" ht="30">
+      <c r="E357" s="6">
+        <v>7</v>
+      </c>
+      <c r="F357" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G357" s="7" t="s">
+        <v>337</v>
+      </c>
       <c r="J357" s="5"/>
       <c r="K357" s="9"/>
     </row>
-    <row r="358" spans="10:11">
+    <row r="358" spans="1:11">
       <c r="J358" s="5"/>
       <c r="K358" s="9"/>
     </row>
-    <row r="359" spans="10:11">
+    <row r="359" spans="1:11" ht="60">
+      <c r="A359" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="B359" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D359" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F359" s="7" t="s">
+        <v>334</v>
+      </c>
       <c r="J359" s="5"/>
       <c r="K359" s="9"/>
     </row>
-    <row r="360" spans="10:11">
+    <row r="360" spans="1:11" ht="30">
+      <c r="E360" s="6">
+        <v>1</v>
+      </c>
+      <c r="F360" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="G360" s="7" t="s">
+        <v>68</v>
+      </c>
       <c r="J360" s="5"/>
       <c r="K360" s="9"/>
     </row>
-    <row r="361" spans="10:11">
+    <row r="361" spans="1:11" ht="60">
+      <c r="E361" s="6">
+        <v>2</v>
+      </c>
+      <c r="F361" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G361" s="7" t="s">
+        <v>279</v>
+      </c>
       <c r="J361" s="5"/>
       <c r="K361" s="9"/>
     </row>
-    <row r="362" spans="10:11">
+    <row r="362" spans="1:11" ht="75">
+      <c r="E362" s="6">
+        <v>3</v>
+      </c>
+      <c r="F362" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G362" s="7" t="s">
+        <v>161</v>
+      </c>
       <c r="J362" s="5"/>
       <c r="K362" s="9"/>
     </row>
-    <row r="363" spans="10:11">
+    <row r="363" spans="1:11" ht="135">
+      <c r="E363" s="6">
+        <v>4</v>
+      </c>
+      <c r="F363" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G363" s="7" t="s">
+        <v>291</v>
+      </c>
       <c r="J363" s="5"/>
       <c r="K363" s="9"/>
     </row>
-    <row r="364" spans="10:11">
+    <row r="364" spans="1:11" ht="30">
+      <c r="E364" s="6">
+        <v>5</v>
+      </c>
+      <c r="F364" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="G364" s="7" t="s">
+        <v>335</v>
+      </c>
       <c r="J364" s="5"/>
       <c r="K364" s="9"/>
     </row>
-    <row r="365" spans="10:11">
+    <row r="365" spans="1:11" ht="30">
+      <c r="E365" s="6">
+        <v>6</v>
+      </c>
+      <c r="F365" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="G365" s="7" t="s">
+        <v>340</v>
+      </c>
       <c r="J365" s="5"/>
       <c r="K365" s="9"/>
     </row>
-    <row r="366" spans="10:11">
+    <row r="366" spans="1:11">
+      <c r="E366" s="6">
+        <v>7</v>
+      </c>
+      <c r="F366" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G366" s="7" t="s">
+        <v>343</v>
+      </c>
       <c r="J366" s="5"/>
       <c r="K366" s="9"/>
     </row>
-    <row r="367" spans="10:11">
+    <row r="367" spans="1:11">
       <c r="J367" s="5"/>
       <c r="K367" s="9"/>
     </row>
-    <row r="368" spans="10:11">
+    <row r="368" spans="1:11" ht="75">
+      <c r="A368" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="B368" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D368" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="F368" s="7" t="s">
+        <v>345</v>
+      </c>
       <c r="J368" s="5"/>
       <c r="K368" s="9"/>
     </row>
-    <row r="369" spans="10:11">
+    <row r="369" spans="1:11" ht="30">
+      <c r="E369" s="6">
+        <v>1</v>
+      </c>
+      <c r="F369" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="G369" s="7" t="s">
+        <v>68</v>
+      </c>
       <c r="J369" s="5"/>
       <c r="K369" s="9"/>
     </row>
-    <row r="370" spans="10:11">
+    <row r="370" spans="1:11" ht="60">
+      <c r="E370" s="6">
+        <v>2</v>
+      </c>
+      <c r="F370" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G370" s="7" t="s">
+        <v>279</v>
+      </c>
       <c r="J370" s="5"/>
       <c r="K370" s="9"/>
     </row>
-    <row r="371" spans="10:11">
+    <row r="371" spans="1:11" ht="67.5" customHeight="1">
+      <c r="E371" s="6">
+        <v>3</v>
+      </c>
+      <c r="F371" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G371" s="7" t="s">
+        <v>161</v>
+      </c>
       <c r="J371" s="5"/>
       <c r="K371" s="9"/>
     </row>
-    <row r="372" spans="10:11">
+    <row r="372" spans="1:11" ht="135">
+      <c r="E372" s="6">
+        <v>4</v>
+      </c>
+      <c r="F372" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G372" s="7" t="s">
+        <v>291</v>
+      </c>
       <c r="J372" s="5"/>
       <c r="K372" s="9"/>
     </row>
-    <row r="373" spans="10:11">
+    <row r="373" spans="1:11" ht="30">
+      <c r="E373" s="6">
+        <v>5</v>
+      </c>
+      <c r="F373" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G373" s="7" t="s">
+        <v>348</v>
+      </c>
       <c r="J373" s="5"/>
       <c r="K373" s="9"/>
     </row>
-    <row r="374" spans="10:11">
+    <row r="374" spans="1:11" ht="30">
+      <c r="E374" s="6">
+        <v>6</v>
+      </c>
+      <c r="F374" s="7" t="s">
+        <v>349</v>
+      </c>
       <c r="J374" s="5"/>
       <c r="K374" s="9"/>
     </row>
-    <row r="375" spans="10:11">
+    <row r="375" spans="1:11" ht="30">
+      <c r="E375" s="6">
+        <v>7</v>
+      </c>
+      <c r="F375" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="G375" s="7" t="s">
+        <v>302</v>
+      </c>
       <c r="J375" s="5"/>
       <c r="K375" s="9"/>
     </row>
-    <row r="376" spans="10:11">
+    <row r="376" spans="1:11">
       <c r="J376" s="5"/>
       <c r="K376" s="9"/>
     </row>
-    <row r="377" spans="10:11">
+    <row r="377" spans="1:11" ht="45">
+      <c r="A377" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="B377" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D377" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F377" s="7" t="s">
+        <v>345</v>
+      </c>
       <c r="J377" s="5"/>
       <c r="K377" s="9"/>
     </row>
-    <row r="378" spans="10:11">
+    <row r="378" spans="1:11" ht="30">
+      <c r="E378" s="6">
+        <v>1</v>
+      </c>
+      <c r="F378" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="G378" s="7" t="s">
+        <v>68</v>
+      </c>
       <c r="J378" s="5"/>
       <c r="K378" s="9"/>
     </row>
-    <row r="379" spans="10:11">
+    <row r="379" spans="1:11" ht="60">
+      <c r="E379" s="6">
+        <v>2</v>
+      </c>
+      <c r="F379" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G379" s="7" t="s">
+        <v>279</v>
+      </c>
       <c r="J379" s="5"/>
       <c r="K379" s="9"/>
     </row>
-    <row r="380" spans="10:11">
+    <row r="380" spans="1:11" ht="75">
+      <c r="E380" s="6">
+        <v>3</v>
+      </c>
+      <c r="F380" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G380" s="7" t="s">
+        <v>161</v>
+      </c>
       <c r="J380" s="5"/>
       <c r="K380" s="9"/>
     </row>
-    <row r="381" spans="10:11">
+    <row r="381" spans="1:11" ht="135">
+      <c r="E381" s="6">
+        <v>4</v>
+      </c>
+      <c r="F381" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G381" s="7" t="s">
+        <v>291</v>
+      </c>
       <c r="J381" s="5"/>
       <c r="K381" s="9"/>
     </row>
-    <row r="382" spans="10:11">
+    <row r="382" spans="1:11" ht="30">
+      <c r="E382" s="6">
+        <v>5</v>
+      </c>
+      <c r="F382" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G382" s="7" t="s">
+        <v>348</v>
+      </c>
       <c r="J382" s="5"/>
       <c r="K382" s="9"/>
     </row>
-    <row r="383" spans="10:11">
+    <row r="383" spans="1:11">
+      <c r="E383" s="6">
+        <v>6</v>
+      </c>
+      <c r="F383" s="7" t="s">
+        <v>353</v>
+      </c>
       <c r="J383" s="5"/>
       <c r="K383" s="9"/>
     </row>
-    <row r="384" spans="10:11">
+    <row r="384" spans="1:11">
+      <c r="E384" s="6">
+        <v>7</v>
+      </c>
+      <c r="F384" s="7" t="s">
+        <v>171</v>
+      </c>
       <c r="J384" s="5"/>
       <c r="K384" s="9"/>
     </row>
-    <row r="385" spans="10:11">
+    <row r="385" spans="1:11">
       <c r="J385" s="5"/>
       <c r="K385" s="9"/>
     </row>
-    <row r="386" spans="10:11">
+    <row r="386" spans="1:11">
+      <c r="A386" s="7" t="s">
+        <v>354</v>
+      </c>
       <c r="J386" s="5"/>
       <c r="K386" s="9"/>
     </row>
-    <row r="387" spans="10:11">
+    <row r="387" spans="1:11">
       <c r="J387" s="5"/>
       <c r="K387" s="9"/>
     </row>
-    <row r="388" spans="10:11">
+    <row r="388" spans="1:11">
       <c r="J388" s="5"/>
       <c r="K388" s="9"/>
     </row>
-    <row r="389" spans="10:11">
+    <row r="389" spans="1:11">
       <c r="J389" s="5"/>
       <c r="K389" s="9"/>
     </row>
-    <row r="390" spans="10:11">
+    <row r="390" spans="1:11">
       <c r="J390" s="5"/>
       <c r="K390" s="9"/>
     </row>
-    <row r="391" spans="10:11">
+    <row r="391" spans="1:11">
       <c r="J391" s="5"/>
       <c r="K391" s="9"/>
     </row>
-    <row r="392" spans="10:11">
+    <row r="392" spans="1:11">
       <c r="J392" s="5"/>
       <c r="K392" s="9"/>
     </row>
-    <row r="393" spans="10:11">
+    <row r="393" spans="1:11">
       <c r="J393" s="5"/>
       <c r="K393" s="9"/>
     </row>
-    <row r="394" spans="10:11">
+    <row r="394" spans="1:11">
       <c r="J394" s="5"/>
       <c r="K394" s="9"/>
     </row>
-    <row r="395" spans="10:11">
+    <row r="395" spans="1:11">
       <c r="J395" s="5"/>
       <c r="K395" s="9"/>
     </row>
-    <row r="396" spans="10:11">
+    <row r="396" spans="1:11">
       <c r="J396" s="5"/>
       <c r="K396" s="9"/>
     </row>
-    <row r="397" spans="10:11">
+    <row r="397" spans="1:11">
       <c r="J397" s="5"/>
       <c r="K397" s="9"/>
     </row>
-    <row r="398" spans="10:11">
+    <row r="398" spans="1:11">
       <c r="J398" s="5"/>
       <c r="K398" s="9"/>
     </row>
-    <row r="399" spans="10:11">
+    <row r="399" spans="1:11">
       <c r="J399" s="5"/>
       <c r="K399" s="9"/>
     </row>
-    <row r="400" spans="10:11">
+    <row r="400" spans="1:11">
       <c r="J400" s="5"/>
       <c r="K400" s="9"/>
     </row>
@@ -6145,7 +7000,7 @@
       <c r="K488" s="9"/>
     </row>
     <row r="489" spans="10:11">
-      <c r="J489" s="5"/>
+      <c r="J489" s="9"/>
       <c r="K489" s="9"/>
     </row>
     <row r="490" spans="10:11">
@@ -6957,7 +7812,6 @@
       <c r="K691" s="9"/>
     </row>
     <row r="692" spans="10:11">
-      <c r="J692" s="9"/>
       <c r="K692" s="9"/>
     </row>
     <row r="693" spans="10:11">
@@ -7091,9 +7945,6 @@
     </row>
     <row r="736" spans="11:11">
       <c r="K736" s="9"/>
-    </row>
-    <row r="737" spans="11:11">
-      <c r="K737" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7101,20 +7952,20 @@
     <mergeCell ref="Q1:R1"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J489 C2:C663">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C663:C732">
+      <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Parvathy P, Semin Das, Sangeetha, Rijo J Patric"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J489:J691">
+      <formula1>"Leona, Parvathy, Raziya, Rijo"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J488 C2:C662">
       <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Semin Das, Sangeetha, Rijo J Patric"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C664:C733">
-      <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Parvathy P, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B12:B17 B19:B20 B6:B7">
       <formula1>"CAS/ Appointment, Out Patient, Care Desk, EMR, Lab &amp; General Billing, Pharmacy Billing, Lab Results, Radiology, Insurance Desk, Casualty, MRD, In Patient, Nursing Station, Theatre, Indent, Store Management"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K737">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K736">
       <formula1>"Pass, Fail, Blocked"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J490:J692">
-      <formula1>"Leona, Parvathy, Raziya, Rijo"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
